--- a/Shared/Sources/Houses List.xlsx
+++ b/Shared/Sources/Houses List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Shared/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6C8170C9-200E-7640-802A-44639D7FE217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5743657C-62FC-EF40-94F4-65F9EE62C429}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6C8170C9-200E-7640-802A-44639D7FE217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF6700F-F814-4F47-9FF2-701B74CBB122}"/>
   <bookViews>
-    <workbookView xWindow="-2220" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{7339E006-2030-C547-8CD1-DFA0B1337BDD}"/>
+    <workbookView xWindow="6060" yWindow="5660" windowWidth="25240" windowHeight="13940" xr2:uid="{7339E006-2030-C547-8CD1-DFA0B1337BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>2e van Leydengaelstraat 6</t>
   </si>
   <si>
-    <t>3134 LL</t>
-  </si>
-  <si>
     <t>0023</t>
   </si>
   <si>
@@ -3906,6 +3903,9 @@
   </si>
   <si>
     <t>0400</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5071,7 +5071,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>1289</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
@@ -5082,72 +5082,72 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C25" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="E25" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -5158,13 +5158,13 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>67</v>
@@ -5175,16 +5175,16 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="7">
@@ -5194,13 +5194,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>78</v>
@@ -5211,13 +5211,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>116</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -5228,16 +5228,16 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="7"/>
@@ -5245,16 +5245,16 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="D33" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="13"/>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>21</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="C35" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>21</v>
@@ -5298,13 +5298,13 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>21</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="C37" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>21</v>
@@ -5332,16 +5332,16 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>135</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="7"/>
@@ -5349,16 +5349,16 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>137</v>
-      </c>
       <c r="C39" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="7"/>
@@ -5366,19 +5366,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>142</v>
       </c>
       <c r="F40" s="18">
         <v>1005</v>
@@ -5387,13 +5387,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>58</v>
@@ -5408,13 +5408,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>10</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>21</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="F44" s="7">
         <v>1005</v>
@@ -5463,19 +5463,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="25">
         <v>1005</v>
@@ -5484,19 +5484,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="C46" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="25">
         <v>1005</v>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="7">
         <v>1005</v>
@@ -5526,19 +5526,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="F48" s="7">
         <v>1005</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>17</v>
@@ -5566,16 +5566,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E50" s="8">
         <v>7229</v>
@@ -5587,13 +5587,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>25</v>
@@ -5606,19 +5606,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="F52" s="7">
         <v>1005</v>
@@ -5627,16 +5627,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="8">
         <v>8366</v>
@@ -5648,19 +5648,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="F54" s="7">
         <v>2206</v>
@@ -5669,19 +5669,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="E55" s="34" t="s">
         <v>199</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>200</v>
       </c>
       <c r="F55" s="13">
         <v>2206</v>
@@ -5692,19 +5692,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="D56" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="E56" s="27" t="s">
         <v>204</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>205</v>
       </c>
       <c r="F56" s="25">
         <v>1005</v>
@@ -5713,16 +5713,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="E57" s="8">
         <v>2506</v>
@@ -5734,13 +5734,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>212</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>67</v>
@@ -5751,16 +5751,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="E59" s="8">
         <v>2418</v>
@@ -5772,16 +5772,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E60" s="8">
         <v>1063</v>
@@ -5793,19 +5793,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C61" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F61" s="22">
         <v>1005</v>
@@ -5816,19 +5816,19 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>227</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F62" s="7">
         <v>9090</v>
@@ -5837,16 +5837,16 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="C63" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="D63" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E63" s="14">
         <v>8522</v>
@@ -5860,13 +5860,13 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -5881,16 +5881,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="E65" s="8">
         <v>7806</v>
@@ -5902,13 +5902,13 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="C66" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>242</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>58</v>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="D67" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="E67" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="F67" s="25">
         <v>1005</v>
@@ -5944,16 +5944,16 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="C68" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="D68" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E68" s="8">
         <v>4405</v>
@@ -5965,16 +5965,16 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="C69" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="D69" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="E69" s="14">
         <v>1969</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="C70" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="D70" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="E70" s="14">
         <v>1970</v>
@@ -6011,16 +6011,16 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="C71" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>262</v>
-      </c>
       <c r="D71" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E71" s="8">
         <v>7001</v>
@@ -6032,16 +6032,16 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="C72" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>265</v>
-      </c>
       <c r="D72" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" s="8">
         <v>1970</v>
@@ -6053,16 +6053,16 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="C73" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="D73" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="E73" s="8">
         <v>1970</v>
@@ -6074,16 +6074,16 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="D74" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="E74" s="8">
         <v>6426</v>
@@ -6095,13 +6095,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="25" t="s">
         <v>275</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>276</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>67</v>
@@ -6112,16 +6112,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="E76" s="8">
         <v>2710</v>
@@ -6133,19 +6133,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="D77" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="E77" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="F77" s="7">
         <v>1005</v>
@@ -6154,19 +6154,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="D78" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="F78" s="7">
         <v>1005</v>
@@ -6175,16 +6175,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="E79" s="8">
         <v>9260</v>
@@ -6196,19 +6196,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="D80" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>296</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>297</v>
       </c>
       <c r="F80" s="25">
         <v>1005</v>
@@ -6217,19 +6217,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="25" t="s">
         <v>299</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>300</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F81" s="25">
         <v>1005</v>
@@ -6238,16 +6238,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="D82" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="E82" s="27"/>
       <c r="F82" s="25"/>
@@ -6255,19 +6255,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F83" s="7">
         <v>1005</v>
@@ -6276,19 +6276,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="D84" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="E84" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>314</v>
       </c>
       <c r="F84" s="22">
         <v>2206</v>
@@ -6299,16 +6299,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="7">
@@ -6318,16 +6318,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E86" s="8">
         <v>2954</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>32</v>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="D88" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="E88" s="27" t="s">
         <v>329</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>330</v>
       </c>
       <c r="F88" s="25">
         <v>1005</v>
@@ -6381,13 +6381,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="25" t="s">
         <v>332</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>333</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>21</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>78</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C91" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>58</v>
@@ -6432,13 +6432,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>32</v>
@@ -6453,16 +6453,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="E93" s="8">
         <v>5003</v>
@@ -6474,19 +6474,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="D94" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="23" t="s">
         <v>349</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>350</v>
       </c>
       <c r="F94" s="22">
         <v>1005</v>
@@ -6497,16 +6497,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>352</v>
-      </c>
       <c r="C95" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E95" s="35">
         <v>1734</v>
@@ -6520,13 +6520,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="25" t="s">
         <v>354</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>78</v>
@@ -6537,16 +6537,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="C97" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="D97" s="26" t="s">
         <v>358</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>359</v>
       </c>
       <c r="E97" s="14">
         <v>8803</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="D98" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="E98" s="27" t="s">
         <v>363</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>364</v>
       </c>
       <c r="F98" s="25">
         <v>1005</v>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="D99" s="36" t="s">
         <v>10</v>
@@ -6598,13 +6598,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>370</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>67</v>
@@ -6619,13 +6619,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>58</v>
@@ -6640,16 +6640,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="E102" s="8">
         <v>1039</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>58</v>
@@ -6678,16 +6678,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="C104" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="7"/>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="C105" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>58</v>
@@ -6714,13 +6714,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B106" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="C106" s="18" t="s">
         <v>387</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>36</v>
@@ -6731,19 +6731,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="C107" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="D107" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="E107" s="23" t="s">
         <v>392</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>393</v>
       </c>
       <c r="F107" s="22">
         <v>2206</v>
@@ -6754,19 +6754,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="D108" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="E108" s="27" t="s">
         <v>396</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>397</v>
       </c>
       <c r="F108" s="25">
         <v>1005</v>
@@ -6775,13 +6775,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>17</v>
@@ -6796,16 +6796,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="D110" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>404</v>
       </c>
       <c r="E110" s="27">
         <v>9191</v>
@@ -6817,16 +6817,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="C111" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="E111" s="8">
         <v>3609</v>
@@ -6838,13 +6838,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>411</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>21</v>
@@ -6861,16 +6861,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="E113" s="8">
         <v>6984</v>
@@ -6882,19 +6882,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="E114" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="F114" s="7">
         <v>2206</v>
@@ -6903,16 +6903,16 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="C115" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>423</v>
-      </c>
       <c r="D115" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="7"/>
@@ -6920,16 +6920,16 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="C116" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="D116" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="E116" s="8">
         <v>7159</v>
@@ -6941,19 +6941,19 @@
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B117" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="C117" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="D117" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="E117" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F117" s="13"/>
       <c r="G117" s="15" t="s">
@@ -6962,16 +6962,16 @@
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B118" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="C118" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="D118" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="E118" s="8">
         <v>2236</v>
@@ -6983,16 +6983,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="D119" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="E119" s="27">
         <v>2826</v>
@@ -7004,16 +7004,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="D120" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>443</v>
       </c>
       <c r="E120" s="27">
         <v>3427</v>
@@ -7028,13 +7028,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="D121" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>446</v>
       </c>
       <c r="E121" s="27">
         <v>3410</v>
@@ -7046,16 +7046,16 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B122" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="C122" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="D122" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="E122" s="8">
         <v>8794</v>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="C123" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>21</v>
@@ -7084,16 +7084,16 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B124" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="C124" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="D124" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="E124" s="8">
         <v>9012</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B125" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="C125" s="28" t="s">
         <v>458</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>459</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>54</v>
@@ -7124,16 +7124,16 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B126" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="C126" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="C126" s="25" t="s">
-        <v>462</v>
-      </c>
       <c r="D126" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="7"/>
@@ -7141,16 +7141,16 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B127" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B127" s="29" t="s">
-        <v>464</v>
-      </c>
       <c r="C127" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="7"/>
@@ -7158,13 +7158,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B128" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="C128" s="40" t="s">
         <v>466</v>
-      </c>
-      <c r="C128" s="40" t="s">
-        <v>467</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>78</v>
@@ -7177,16 +7177,16 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="C129" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="C129" s="28" t="s">
-        <v>470</v>
-      </c>
       <c r="D129" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E129" s="8">
         <v>3845</v>
@@ -7198,16 +7198,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="C130" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="E130" s="8">
         <v>1307</v>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>78</v>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="C132" s="25" t="s">
         <v>479</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>480</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>21</v>
@@ -7253,16 +7253,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="C133" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>484</v>
       </c>
       <c r="E133" s="14">
         <v>8036</v>
@@ -7276,16 +7276,16 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B134" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="C134" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C134" s="25" t="s">
-        <v>487</v>
-      </c>
       <c r="D134" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="7"/>
@@ -7293,16 +7293,16 @@
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="B135" s="30" t="s">
-        <v>489</v>
-      </c>
       <c r="C135" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="13"/>
@@ -7312,16 +7312,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C136" s="25" t="s">
-        <v>492</v>
-      </c>
       <c r="D136" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E136" s="27">
         <v>3136</v>
@@ -7333,16 +7333,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="C137" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C137" s="25" t="s">
-        <v>495</v>
-      </c>
       <c r="D137" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E137" s="27">
         <v>4720</v>
@@ -7354,14 +7354,14 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>497</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E138" s="23"/>
       <c r="F138" s="22"/>
@@ -7371,19 +7371,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="F139" s="7">
         <v>2206</v>
@@ -7392,13 +7392,13 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B140" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="C140" s="28" t="s">
         <v>505</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>506</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>58</v>
@@ -7409,13 +7409,13 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B141" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="C141" s="28" t="s">
         <v>508</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>509</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>25</v>
@@ -7430,16 +7430,16 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B142" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="C142" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="D142" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="E142" s="8">
         <v>3450</v>
@@ -7451,16 +7451,16 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B143" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="C143" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="D143" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="E143" s="8">
         <v>8668</v>
@@ -7472,16 +7472,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="D144" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E144" s="8">
         <v>6608</v>
@@ -7493,16 +7493,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="D145" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="E145" s="27">
         <v>4408</v>
@@ -7514,16 +7514,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="D146" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E146" s="8">
         <v>5330</v>
@@ -7533,16 +7533,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="C147" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C147" s="25" t="s">
-        <v>530</v>
-      </c>
       <c r="D147" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E147" s="27">
         <v>4402</v>
@@ -7554,13 +7554,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="C148" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>10</v>
@@ -7573,16 +7573,16 @@
     </row>
     <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="D149" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="7"/>
@@ -7590,16 +7590,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="C150" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="7"/>
@@ -7607,16 +7607,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="B151" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="B151" s="42" t="s">
-        <v>541</v>
-      </c>
       <c r="C151" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="D151" s="43" t="s">
         <v>536</v>
-      </c>
-      <c r="D151" s="43" t="s">
-        <v>537</v>
       </c>
       <c r="E151" s="44"/>
       <c r="F151" s="43"/>
@@ -7624,13 +7624,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="25" t="s">
         <v>543</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>544</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>21</v>
@@ -7641,13 +7641,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>10</v>
@@ -7662,13 +7662,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="25" t="s">
         <v>549</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>550</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>78</v>
@@ -7679,16 +7679,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="C155" s="25" t="s">
-        <v>553</v>
-      </c>
       <c r="D155" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="7"/>
@@ -7696,16 +7696,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="C156" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="13" t="s">
         <v>556</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>557</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="13"/>
@@ -7715,34 +7715,34 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="D157" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E157" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="C158" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="C158" s="22" t="s">
-        <v>564</v>
-      </c>
       <c r="D158" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E158" s="23">
         <v>9115</v>
@@ -7756,16 +7756,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="D159" s="25" t="s">
         <v>567</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>568</v>
       </c>
       <c r="E159" s="27">
         <v>1913</v>
@@ -7777,16 +7777,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="D160" s="25" t="s">
         <v>571</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>572</v>
       </c>
       <c r="E160" s="27">
         <v>4623</v>
@@ -7798,16 +7798,16 @@
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B161" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="C161" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="C161" s="28" t="s">
-        <v>575</v>
-      </c>
       <c r="D161" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="7"/>
@@ -7815,16 +7815,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="C162" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="D162" s="22" t="s">
         <v>578</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>579</v>
       </c>
       <c r="E162" s="14"/>
       <c r="F162" s="13"/>
@@ -7834,16 +7834,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="C163" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>582</v>
-      </c>
       <c r="D163" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E163" s="14"/>
       <c r="F163" s="13"/>
@@ -7853,16 +7853,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="D164" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="7"/>
@@ -7870,13 +7870,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="C165" s="25" t="s">
         <v>587</v>
-      </c>
-      <c r="C165" s="25" t="s">
-        <v>588</v>
       </c>
       <c r="D165" s="25" t="s">
         <v>78</v>
@@ -7887,16 +7887,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="C166" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="7">
@@ -7906,16 +7906,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="C167" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="D167" s="25" t="s">
         <v>595</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>596</v>
       </c>
       <c r="E167" s="27"/>
       <c r="F167" s="25">
@@ -7925,16 +7925,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="C168" s="25" t="s">
-        <v>599</v>
-      </c>
       <c r="D168" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E168" s="27">
         <v>4971</v>
@@ -7946,16 +7946,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="7"/>
@@ -7963,16 +7963,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="C170" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="D170" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="E170" s="14"/>
       <c r="F170" s="13"/>
@@ -7982,13 +7982,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>78</v>
@@ -7999,16 +7999,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="C172" s="25" t="s">
-        <v>612</v>
-      </c>
       <c r="D172" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E172" s="27">
         <v>3413</v>
@@ -8020,16 +8020,16 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B173" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="C173" s="31" t="s">
         <v>614</v>
       </c>
-      <c r="C173" s="31" t="s">
+      <c r="D173" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="E173" s="14"/>
       <c r="F173" s="13">
@@ -8041,16 +8041,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="D174" s="36" t="s">
         <v>619</v>
-      </c>
-      <c r="D174" s="36" t="s">
-        <v>620</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="7">
@@ -8059,16 +8059,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="C175" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="D175" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="7">
@@ -8078,16 +8078,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="C176" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>626</v>
-      </c>
       <c r="D176" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="7"/>
@@ -8095,35 +8095,35 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="C177" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="D177" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="7"/>
       <c r="G177" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="C178" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="7">
@@ -8133,16 +8133,16 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B179" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B179" s="29" t="s">
-        <v>636</v>
-      </c>
       <c r="C179" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="7">
@@ -8152,19 +8152,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="C180" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="D180" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="E180" s="27" t="s">
         <v>639</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="E180" s="27" t="s">
-        <v>640</v>
       </c>
       <c r="F180" s="25">
         <v>2206</v>
@@ -8173,16 +8173,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="C181" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="C181" s="22" t="s">
-        <v>643</v>
-      </c>
       <c r="D181" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="13"/>
@@ -8192,16 +8192,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D182" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="13"/>
@@ -8211,16 +8211,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="C183" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="D183" s="13" t="s">
         <v>649</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>650</v>
       </c>
       <c r="E183" s="14">
         <v>1134</v>
@@ -8234,32 +8234,32 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>653</v>
-      </c>
       <c r="D184" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="7"/>
       <c r="G184" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>78</v>
@@ -8270,13 +8270,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>58</v>
@@ -8287,16 +8287,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="7">
@@ -8306,16 +8306,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>666</v>
-      </c>
       <c r="D188" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="7"/>
@@ -8323,16 +8323,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>668</v>
-      </c>
       <c r="C189" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="7"/>
@@ -8340,16 +8340,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>671</v>
-      </c>
       <c r="D190" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="7"/>
@@ -8357,16 +8357,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E191" s="8">
         <v>1247</v>
@@ -8378,16 +8378,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="C192" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>678</v>
-      </c>
       <c r="D192" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="7"/>
@@ -8395,16 +8395,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="7">
@@ -8414,16 +8414,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>685</v>
-      </c>
       <c r="D194" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="7"/>
@@ -8431,16 +8431,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>688</v>
-      </c>
       <c r="D195" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E195" s="8"/>
       <c r="F195" s="7"/>
@@ -8448,16 +8448,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="C196" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E196" s="8"/>
       <c r="F196" s="7"/>
@@ -8465,16 +8465,16 @@
     </row>
     <row r="197" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B197" s="29" t="s">
         <v>691</v>
       </c>
-      <c r="B197" s="29" t="s">
-        <v>692</v>
-      </c>
       <c r="C197" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="7"/>
@@ -8482,19 +8482,19 @@
     </row>
     <row r="198" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>694</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>695</v>
       </c>
       <c r="F198" s="7">
         <v>2206</v>
@@ -8503,13 +8503,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="C199" s="13" t="s">
         <v>697</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>698</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>78</v>
@@ -8522,16 +8522,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>701</v>
-      </c>
       <c r="D200" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="7"/>
@@ -8539,16 +8539,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="D201" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="E201" s="8">
         <v>1355</v>
@@ -8560,19 +8560,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B202" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="C202" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="D202" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E202" s="14" t="s">
         <v>708</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>709</v>
       </c>
       <c r="F202" s="13">
         <v>2206</v>
@@ -8583,16 +8583,16 @@
     </row>
     <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B203" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="B203" s="29" t="s">
+      <c r="C203" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="C203" s="28" t="s">
-        <v>712</v>
-      </c>
       <c r="D203" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="7"/>
@@ -8600,19 +8600,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B204" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="C204" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="E204" s="14" t="s">
         <v>716</v>
-      </c>
-      <c r="E204" s="14" t="s">
-        <v>717</v>
       </c>
       <c r="F204" s="13">
         <v>2206</v>
@@ -8623,16 +8623,16 @@
     </row>
     <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="C205" s="28" t="s">
-        <v>720</v>
-      </c>
       <c r="D205" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E205" s="8">
         <v>1334</v>
@@ -8644,16 +8644,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="E206" s="8"/>
       <c r="F206" s="7">
@@ -8663,16 +8663,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>727</v>
-      </c>
       <c r="D207" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E207" s="8"/>
       <c r="F207" s="7"/>
@@ -8680,16 +8680,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>730</v>
-      </c>
       <c r="D208" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="7"/>
@@ -8697,35 +8697,35 @@
     </row>
     <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B209" s="29" t="s">
         <v>731</v>
       </c>
-      <c r="B209" s="29" t="s">
+      <c r="C209" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="C209" s="28" t="s">
-        <v>733</v>
-      </c>
       <c r="D209" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="7"/>
       <c r="G209" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B210" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="C210" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="C210" s="13" t="s">
-        <v>737</v>
-      </c>
       <c r="D210" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E210" s="14"/>
       <c r="F210" s="13">
@@ -8737,16 +8737,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="C211" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>740</v>
-      </c>
       <c r="D211" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="7"/>
@@ -8754,16 +8754,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="7">
@@ -8773,16 +8773,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="C213" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>745</v>
-      </c>
       <c r="D213" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E213" s="8">
         <v>2166</v>
@@ -8794,16 +8794,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="C214" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>748</v>
-      </c>
       <c r="D214" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="7"/>
@@ -8811,16 +8811,16 @@
     </row>
     <row r="215" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B215" s="29" t="s">
         <v>749</v>
       </c>
-      <c r="B215" s="29" t="s">
+      <c r="C215" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="C215" s="28" t="s">
-        <v>751</v>
-      </c>
       <c r="D215" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="7"/>
@@ -8828,16 +8828,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="C216" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="7"/>
@@ -8845,16 +8845,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="C217" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>756</v>
-      </c>
       <c r="D217" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="7"/>
@@ -8862,16 +8862,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="C218" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>759</v>
-      </c>
       <c r="D218" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="7"/>
@@ -8879,16 +8879,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B219" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="C219" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="C219" s="13" t="s">
-        <v>762</v>
-      </c>
       <c r="D219" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E219" s="14">
         <v>1970</v>
@@ -8900,16 +8900,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="C220" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>765</v>
-      </c>
       <c r="D220" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E220" s="8"/>
       <c r="F220" s="7"/>
@@ -8917,16 +8917,16 @@
     </row>
     <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B221" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="C221" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="C221" s="31" t="s">
-        <v>768</v>
-      </c>
       <c r="D221" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E221" s="14"/>
       <c r="F221" s="13"/>
@@ -8936,16 +8936,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="C222" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>771</v>
-      </c>
       <c r="D222" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E222" s="8"/>
       <c r="F222" s="7"/>
@@ -8953,16 +8953,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="C223" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>774</v>
-      </c>
       <c r="D223" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E223" s="8"/>
       <c r="F223" s="7"/>
@@ -8970,16 +8970,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B224" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="C224" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="D224" s="13" t="s">
         <v>777</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>778</v>
       </c>
       <c r="E224" s="14">
         <v>1139</v>
@@ -8993,16 +8993,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="C225" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>781</v>
-      </c>
       <c r="D225" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E225" s="8"/>
       <c r="F225" s="7"/>
@@ -9010,16 +9010,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="C226" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="C226" s="7" t="s">
-        <v>784</v>
-      </c>
       <c r="D226" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E226" s="8"/>
       <c r="F226" s="7"/>
@@ -9027,16 +9027,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="C227" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>787</v>
-      </c>
       <c r="D227" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E227" s="8">
         <v>5793</v>
@@ -9048,16 +9048,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="C228" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>790</v>
-      </c>
       <c r="D228" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E228" s="8"/>
       <c r="F228" s="7">
@@ -9067,35 +9067,35 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="C229" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="C229" s="7" t="s">
-        <v>793</v>
-      </c>
       <c r="D229" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="7"/>
       <c r="G229" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="C230" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>797</v>
-      </c>
       <c r="D230" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="7"/>
@@ -9103,16 +9103,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="C231" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="C231" s="7" t="s">
-        <v>800</v>
-      </c>
       <c r="D231" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="7"/>
@@ -9120,16 +9120,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B232" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="C232" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C232" s="13" t="s">
-        <v>803</v>
-      </c>
       <c r="D232" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E232" s="14"/>
       <c r="F232" s="13"/>
@@ -9139,16 +9139,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="C233" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>806</v>
-      </c>
       <c r="D233" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="7"/>
@@ -9156,16 +9156,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="C234" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>809</v>
-      </c>
       <c r="D234" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E234" s="8"/>
       <c r="F234" s="7"/>
@@ -9173,16 +9173,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="C235" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>812</v>
-      </c>
       <c r="D235" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="7"/>
@@ -9190,16 +9190,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>814</v>
-      </c>
       <c r="C236" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="7"/>
@@ -9207,35 +9207,35 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="C237" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>817</v>
-      </c>
       <c r="D237" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E237" s="8"/>
       <c r="F237" s="7"/>
       <c r="G237" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B238" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="B238" s="12" t="s">
+      <c r="C238" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C238" s="13" t="s">
-        <v>820</v>
-      </c>
       <c r="D238" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E238" s="14"/>
       <c r="F238" s="13"/>
@@ -9245,35 +9245,35 @@
     </row>
     <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B239" s="29" t="s">
         <v>821</v>
       </c>
-      <c r="B239" s="29" t="s">
+      <c r="C239" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="C239" s="28" t="s">
-        <v>823</v>
-      </c>
       <c r="D239" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="7"/>
       <c r="G239" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="C240" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>827</v>
-      </c>
       <c r="D240" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="7"/>
@@ -9281,16 +9281,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="C241" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>830</v>
-      </c>
       <c r="D241" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E241" s="8"/>
       <c r="F241" s="7"/>
@@ -9298,35 +9298,35 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="C242" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>833</v>
-      </c>
       <c r="D242" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E242" s="8"/>
       <c r="F242" s="7"/>
       <c r="G242" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="C243" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>837</v>
-      </c>
       <c r="D243" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E243" s="8"/>
       <c r="F243" s="7"/>
@@ -9334,16 +9334,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>839</v>
-      </c>
       <c r="C244" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E244" s="8"/>
       <c r="F244" s="7"/>
@@ -9351,16 +9351,16 @@
     </row>
     <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="B245" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="B245" s="29" t="s">
-        <v>841</v>
-      </c>
       <c r="C245" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E245" s="8"/>
       <c r="F245" s="7"/>
@@ -9368,35 +9368,35 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="C246" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>844</v>
-      </c>
       <c r="D246" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E246" s="8"/>
       <c r="F246" s="7"/>
       <c r="G246" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B247" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="C247" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="C247" s="13" t="s">
-        <v>846</v>
-      </c>
       <c r="D247" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E247" s="14"/>
       <c r="F247" s="13"/>
@@ -9406,16 +9406,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="C248" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>849</v>
-      </c>
       <c r="D248" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E248" s="8"/>
       <c r="F248" s="7"/>
@@ -9426,13 +9426,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C249" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>851</v>
-      </c>
       <c r="D249" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E249" s="8"/>
       <c r="F249" s="7"/>
@@ -9440,16 +9440,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="C250" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>854</v>
-      </c>
       <c r="D250" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="7"/>
@@ -9457,16 +9457,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="C251" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>857</v>
-      </c>
       <c r="D251" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="7"/>
@@ -9474,16 +9474,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="C252" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>860</v>
-      </c>
       <c r="D252" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E252" s="8"/>
       <c r="F252" s="7"/>
@@ -9491,16 +9491,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>862</v>
-      </c>
       <c r="C253" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D253" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="7"/>
@@ -9508,16 +9508,16 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="C254" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D254" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="7"/>
@@ -9525,16 +9525,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>866</v>
-      </c>
       <c r="C255" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D255" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="7"/>
@@ -9542,16 +9542,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>868</v>
-      </c>
       <c r="C256" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D256" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="7"/>
@@ -9559,16 +9559,16 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>870</v>
-      </c>
       <c r="C257" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D257" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="7"/>
@@ -9576,16 +9576,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="C258" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D258" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E258" s="8"/>
       <c r="F258" s="7"/>
@@ -9593,16 +9593,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>874</v>
-      </c>
       <c r="C259" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D259" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E259" s="8"/>
       <c r="F259" s="7"/>
@@ -9610,16 +9610,16 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>876</v>
-      </c>
       <c r="C260" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D260" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="7"/>
@@ -9627,13 +9627,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="C261" s="25" t="s">
         <v>878</v>
-      </c>
-      <c r="C261" s="25" t="s">
-        <v>879</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>78</v>
@@ -9644,13 +9644,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>881</v>
-      </c>
       <c r="C262" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D262" s="25" t="s">
         <v>78</v>
@@ -9661,13 +9661,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>883</v>
-      </c>
       <c r="C263" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D263" s="25" t="s">
         <v>78</v>
@@ -9678,13 +9678,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B264" s="6" t="s">
-        <v>885</v>
-      </c>
       <c r="C264" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>78</v>
@@ -9695,13 +9695,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>887</v>
-      </c>
       <c r="C265" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D265" s="25" t="s">
         <v>78</v>
@@ -9712,13 +9712,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>889</v>
-      </c>
       <c r="C266" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D266" s="25" t="s">
         <v>78</v>
@@ -9729,13 +9729,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>891</v>
-      </c>
       <c r="C267" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D267" s="25" t="s">
         <v>78</v>
@@ -9746,13 +9746,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>893</v>
-      </c>
       <c r="C268" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D268" s="25" t="s">
         <v>78</v>
@@ -9763,13 +9763,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>895</v>
-      </c>
       <c r="C269" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D269" s="25" t="s">
         <v>78</v>
@@ -9780,16 +9780,16 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="C270" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="C270" s="25" t="s">
-        <v>898</v>
-      </c>
       <c r="D270" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E270" s="27"/>
       <c r="F270" s="25">
@@ -9799,16 +9799,16 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>900</v>
-      </c>
       <c r="C271" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E271" s="27"/>
       <c r="F271" s="25">
@@ -9818,16 +9818,16 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>902</v>
-      </c>
       <c r="C272" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E272" s="27"/>
       <c r="F272" s="25">
@@ -9837,16 +9837,16 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>904</v>
-      </c>
       <c r="C273" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E273" s="27"/>
       <c r="F273" s="25">
@@ -9856,13 +9856,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="C274" s="25" t="s">
         <v>906</v>
-      </c>
-      <c r="C274" s="25" t="s">
-        <v>907</v>
       </c>
       <c r="D274" s="25" t="s">
         <v>67</v>
@@ -9873,16 +9873,16 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="C275" s="25" t="s">
         <v>909</v>
       </c>
-      <c r="C275" s="25" t="s">
-        <v>910</v>
-      </c>
       <c r="D275" s="25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E275" s="8"/>
       <c r="F275" s="7"/>
@@ -9890,16 +9890,16 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="C276" s="25" t="s">
         <v>912</v>
       </c>
-      <c r="C276" s="25" t="s">
-        <v>913</v>
-      </c>
       <c r="D276" s="25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="7"/>
@@ -9907,16 +9907,16 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="C277" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="C277" s="25" t="s">
-        <v>916</v>
-      </c>
       <c r="D277" s="25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E277" s="25"/>
       <c r="F277" s="25"/>
@@ -9924,16 +9924,16 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="B278" s="48" t="s">
         <v>917</v>
       </c>
-      <c r="B278" s="48" t="s">
+      <c r="C278" s="49" t="s">
         <v>918</v>
       </c>
-      <c r="C278" s="49" t="s">
+      <c r="D278" s="49" t="s">
         <v>919</v>
-      </c>
-      <c r="D278" s="49" t="s">
-        <v>920</v>
       </c>
       <c r="E278" s="49"/>
       <c r="F278" s="49"/>
@@ -9943,16 +9943,16 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="C279" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C279" s="25" t="s">
-        <v>923</v>
-      </c>
       <c r="D279" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E279" s="25"/>
       <c r="F279" s="25"/>
@@ -9960,16 +9960,16 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="C280" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="C280" s="25" t="s">
+      <c r="D280" s="25" t="s">
         <v>926</v>
-      </c>
-      <c r="D280" s="25" t="s">
-        <v>927</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="7"/>
@@ -9977,16 +9977,16 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="C281" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="C281" s="25" t="s">
+      <c r="D281" s="25" t="s">
         <v>930</v>
-      </c>
-      <c r="D281" s="25" t="s">
-        <v>931</v>
       </c>
       <c r="E281" s="25"/>
       <c r="F281" s="25"/>
@@ -9994,16 +9994,16 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="C282" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="D282" s="25" t="s">
         <v>930</v>
-      </c>
-      <c r="D282" s="25" t="s">
-        <v>931</v>
       </c>
       <c r="E282" s="25"/>
       <c r="F282" s="25"/>
@@ -10011,16 +10011,16 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="C283" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="C283" s="25" t="s">
+      <c r="D283" s="25" t="s">
         <v>936</v>
-      </c>
-      <c r="D283" s="25" t="s">
-        <v>937</v>
       </c>
       <c r="E283" s="25"/>
       <c r="F283" s="25"/>
@@ -10028,16 +10028,16 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="C284" s="25" t="s">
         <v>939</v>
       </c>
-      <c r="C284" s="25" t="s">
-        <v>940</v>
-      </c>
       <c r="D284" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E284" s="25"/>
       <c r="F284" s="25"/>
@@ -10045,16 +10045,16 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="C285" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="C285" s="25" t="s">
-        <v>943</v>
-      </c>
       <c r="D285" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E285" s="25"/>
       <c r="F285" s="25"/>
@@ -10062,16 +10062,16 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="C286" s="25" t="s">
         <v>945</v>
       </c>
-      <c r="C286" s="25" t="s">
-        <v>946</v>
-      </c>
       <c r="D286" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="7"/>
@@ -10079,16 +10079,16 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="C287" s="25" t="s">
         <v>948</v>
       </c>
-      <c r="C287" s="25" t="s">
-        <v>949</v>
-      </c>
       <c r="D287" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="7"/>
@@ -10096,16 +10096,16 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="C288" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="C288" s="22" t="s">
+      <c r="D288" s="22" t="s">
         <v>952</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>953</v>
       </c>
       <c r="E288" s="22"/>
       <c r="F288" s="22"/>
@@ -10115,16 +10115,16 @@
     </row>
     <row r="289" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="C289" s="25" t="s">
         <v>955</v>
       </c>
-      <c r="C289" s="25" t="s">
-        <v>956</v>
-      </c>
       <c r="D289" s="50" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E289" s="25"/>
       <c r="F289" s="25"/>
@@ -10132,16 +10132,16 @@
     </row>
     <row r="290" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>958</v>
-      </c>
       <c r="C290" s="25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D290" s="50" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E290" s="8"/>
       <c r="F290" s="7"/>
@@ -10149,16 +10149,16 @@
     </row>
     <row r="291" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="47" t="s">
+        <v>958</v>
+      </c>
+      <c r="B291" s="48" t="s">
         <v>959</v>
       </c>
-      <c r="B291" s="48" t="s">
-        <v>960</v>
-      </c>
       <c r="C291" s="49" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D291" s="51" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E291" s="52"/>
       <c r="F291" s="53"/>
@@ -10168,13 +10168,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="C292" s="25" t="s">
         <v>962</v>
-      </c>
-      <c r="C292" s="25" t="s">
-        <v>963</v>
       </c>
       <c r="D292" s="25" t="s">
         <v>10</v>
@@ -10185,53 +10185,53 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="C293" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="C293" s="25" t="s">
-        <v>966</v>
-      </c>
       <c r="D293" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F293" s="25"/>
       <c r="G293" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="C294" s="25" t="s">
         <v>969</v>
       </c>
-      <c r="C294" s="25" t="s">
+      <c r="D294" s="25" t="s">
         <v>970</v>
       </c>
-      <c r="D294" s="25" t="s">
+      <c r="E294" s="27" t="s">
         <v>971</v>
-      </c>
-      <c r="E294" s="27" t="s">
-        <v>972</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="9"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="C295" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>974</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>975</v>
       </c>
       <c r="E295" s="27">
         <v>1115</v>
@@ -10241,38 +10241,38 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="C296" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E296" s="8" t="s">
         <v>977</v>
-      </c>
-      <c r="C296" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E296" s="8" t="s">
-        <v>978</v>
       </c>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="B297" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="C297" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="E297" s="23" t="s">
         <v>980</v>
-      </c>
-      <c r="C297" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="D297" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="E297" s="23" t="s">
-        <v>981</v>
       </c>
       <c r="F297" s="22"/>
       <c r="G297" s="56" t="s">
@@ -10281,35 +10281,35 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="C298" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E298" s="27" t="s">
         <v>983</v>
-      </c>
-      <c r="C298" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E298" s="27" t="s">
-        <v>984</v>
       </c>
       <c r="F298" s="25"/>
       <c r="G298" s="9"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="B299" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="B299" s="12" t="s">
-        <v>986</v>
-      </c>
       <c r="C299" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D299" s="22" t="s">
         <v>970</v>
-      </c>
-      <c r="D299" s="22" t="s">
-        <v>971</v>
       </c>
       <c r="E299" s="22">
         <v>3127</v>
@@ -10321,16 +10321,16 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>988</v>
-      </c>
       <c r="C300" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E300" s="27">
         <v>3257</v>
@@ -10340,38 +10340,38 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="C301" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D301" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E301" s="27" t="s">
         <v>990</v>
-      </c>
-      <c r="C301" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E301" s="27" t="s">
-        <v>991</v>
       </c>
       <c r="F301" s="25"/>
       <c r="G301" s="9"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="C302" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D302" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E302" s="27" t="s">
         <v>993</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D302" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E302" s="27" t="s">
-        <v>994</v>
       </c>
       <c r="F302" s="25">
         <v>2206</v>
@@ -10380,19 +10380,19 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="C303" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D303" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E303" s="27" t="s">
         <v>996</v>
-      </c>
-      <c r="C303" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D303" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E303" s="27" t="s">
-        <v>997</v>
       </c>
       <c r="F303" s="25">
         <v>2206</v>
@@ -10401,76 +10401,76 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="C304" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D304" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E304" s="27" t="s">
         <v>999</v>
-      </c>
-      <c r="C304" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D304" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E304" s="27" t="s">
-        <v>1000</v>
       </c>
       <c r="F304" s="25"/>
       <c r="G304" s="9"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="C305" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D305" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E305" s="27" t="s">
         <v>1002</v>
-      </c>
-      <c r="C305" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D305" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E305" s="27" t="s">
-        <v>1003</v>
       </c>
       <c r="F305" s="25"/>
       <c r="G305" s="9"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="C306" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D306" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E306" s="27" t="s">
         <v>1005</v>
-      </c>
-      <c r="C306" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D306" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E306" s="27" t="s">
-        <v>1006</v>
       </c>
       <c r="F306" s="25"/>
       <c r="G306" s="9"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B307" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="C307" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D307" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="E307" s="23" t="s">
         <v>1008</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="D307" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="E307" s="23" t="s">
-        <v>1009</v>
       </c>
       <c r="F307" s="22"/>
       <c r="G307" s="15" t="s">
@@ -10479,38 +10479,38 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="C308" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D308" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E308" s="27" t="s">
         <v>1011</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D308" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E308" s="27" t="s">
-        <v>1012</v>
       </c>
       <c r="F308" s="25"/>
       <c r="G308" s="9"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="C309" s="25" t="s">
         <v>1014</v>
       </c>
-      <c r="C309" s="25" t="s">
+      <c r="D309" s="25" t="s">
         <v>1015</v>
       </c>
-      <c r="D309" s="25" t="s">
+      <c r="E309" s="27" t="s">
         <v>1016</v>
-      </c>
-      <c r="E309" s="27" t="s">
-        <v>1017</v>
       </c>
       <c r="F309" s="25">
         <v>2206</v>
@@ -10519,19 +10519,19 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="C310" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D310" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E310" s="27" t="s">
         <v>1019</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D310" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E310" s="27" t="s">
-        <v>1020</v>
       </c>
       <c r="F310" s="25">
         <v>2206</v>
@@ -10540,19 +10540,19 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="C311" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D311" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E311" s="27" t="s">
         <v>1022</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D311" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E311" s="27" t="s">
-        <v>1023</v>
       </c>
       <c r="F311" s="25">
         <v>2206</v>
@@ -10561,19 +10561,19 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="C312" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="C312" s="25" t="s">
+      <c r="D312" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E312" s="27" t="s">
         <v>1026</v>
-      </c>
-      <c r="D312" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E312" s="27" t="s">
-        <v>1027</v>
       </c>
       <c r="F312" s="25">
         <v>2206</v>
@@ -10582,19 +10582,19 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B313" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D313" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E313" s="27" t="s">
         <v>1028</v>
-      </c>
-      <c r="C313" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D313" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E313" s="27" t="s">
-        <v>1029</v>
       </c>
       <c r="F313" s="25">
         <v>2206</v>
@@ -10603,19 +10603,19 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="C314" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D314" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E314" s="27" t="s">
         <v>1031</v>
-      </c>
-      <c r="C314" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D314" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E314" s="27" t="s">
-        <v>1032</v>
       </c>
       <c r="F314" s="25">
         <v>2206</v>
@@ -10624,19 +10624,19 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B315" s="17" t="s">
         <v>1033</v>
       </c>
-      <c r="B315" s="17" t="s">
+      <c r="C315" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D315" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E315" s="32" t="s">
         <v>1034</v>
-      </c>
-      <c r="C315" s="18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D315" s="18" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E315" s="32" t="s">
-        <v>1035</v>
       </c>
       <c r="F315" s="18">
         <v>2206</v>
@@ -10645,19 +10645,19 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="C316" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D316" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E316" s="27" t="s">
         <v>1037</v>
-      </c>
-      <c r="C316" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D316" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E316" s="27" t="s">
-        <v>1038</v>
       </c>
       <c r="F316" s="25">
         <v>2206</v>
@@ -10666,19 +10666,19 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="C317" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D317" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E317" s="27" t="s">
         <v>1040</v>
-      </c>
-      <c r="C317" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D317" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E317" s="27" t="s">
-        <v>1041</v>
       </c>
       <c r="F317" s="25">
         <v>2206</v>
@@ -10687,19 +10687,19 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="C318" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D318" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E318" s="27" t="s">
         <v>1043</v>
-      </c>
-      <c r="C318" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D318" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E318" s="27" t="s">
-        <v>1044</v>
       </c>
       <c r="F318" s="25">
         <v>2206</v>
@@ -10708,19 +10708,19 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="C319" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D319" s="25" t="s">
         <v>1046</v>
       </c>
-      <c r="C319" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D319" s="25" t="s">
+      <c r="E319" s="27" t="s">
         <v>1047</v>
-      </c>
-      <c r="E319" s="27" t="s">
-        <v>1048</v>
       </c>
       <c r="F319" s="25">
         <v>2206</v>
@@ -10729,19 +10729,19 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="C320" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D320" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E320" s="27" t="s">
         <v>1050</v>
-      </c>
-      <c r="C320" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D320" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E320" s="27" t="s">
-        <v>1051</v>
       </c>
       <c r="F320" s="25">
         <v>2206</v>
@@ -10750,19 +10750,19 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="C321" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D321" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E321" s="27" t="s">
         <v>1053</v>
-      </c>
-      <c r="C321" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D321" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E321" s="27" t="s">
-        <v>1054</v>
       </c>
       <c r="F321" s="25">
         <v>2206</v>
@@ -10771,19 +10771,19 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B322" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="C322" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D322" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E322" s="27" t="s">
         <v>1056</v>
-      </c>
-      <c r="C322" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D322" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E322" s="27" t="s">
-        <v>1057</v>
       </c>
       <c r="F322" s="25">
         <v>2206</v>
@@ -10792,16 +10792,16 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B323" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="C323" s="25" t="s">
         <v>1059</v>
       </c>
-      <c r="C323" s="25" t="s">
+      <c r="D323" s="25" t="s">
         <v>1060</v>
-      </c>
-      <c r="D323" s="25" t="s">
-        <v>1061</v>
       </c>
       <c r="E323" s="25">
         <v>7810</v>
@@ -10813,16 +10813,16 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B324" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="C324" s="25" t="s">
         <v>1063</v>
       </c>
-      <c r="C324" s="25" t="s">
+      <c r="D324" s="25" t="s">
         <v>1064</v>
-      </c>
-      <c r="D324" s="25" t="s">
-        <v>1065</v>
       </c>
       <c r="E324" s="25">
         <v>7532</v>
@@ -10834,19 +10834,19 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B325" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="C325" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="C325" s="25" t="s">
+      <c r="D325" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E325" s="27" t="s">
         <v>1068</v>
-      </c>
-      <c r="D325" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="E325" s="27" t="s">
-        <v>1069</v>
       </c>
       <c r="F325" s="57">
         <v>1005</v>
@@ -10855,19 +10855,19 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B326" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="C326" s="25" t="s">
         <v>1071</v>
       </c>
-      <c r="C326" s="25" t="s">
+      <c r="D326" s="25" t="s">
         <v>1072</v>
       </c>
-      <c r="D326" s="25" t="s">
+      <c r="E326" s="27" t="s">
         <v>1073</v>
-      </c>
-      <c r="E326" s="27" t="s">
-        <v>1074</v>
       </c>
       <c r="F326" s="25">
         <v>2206</v>
@@ -10876,16 +10876,16 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B327" s="12" t="s">
         <v>1075</v>
       </c>
-      <c r="B327" s="12" t="s">
-        <v>1076</v>
-      </c>
       <c r="C327" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D327" s="22" t="s">
         <v>970</v>
-      </c>
-      <c r="D327" s="22" t="s">
-        <v>971</v>
       </c>
       <c r="E327" s="23"/>
       <c r="F327" s="22"/>
@@ -10895,16 +10895,16 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B328" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="C328" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="D328" s="25" t="s">
         <v>1079</v>
-      </c>
-      <c r="D328" s="25" t="s">
-        <v>1080</v>
       </c>
       <c r="E328" s="25"/>
       <c r="F328" s="25"/>
@@ -10912,16 +10912,16 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="C329" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="C329" s="25" t="s">
-        <v>1083</v>
-      </c>
       <c r="D329" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E329" s="25">
         <v>1136</v>
@@ -10931,16 +10931,16 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="B330" s="6" t="s">
-        <v>1085</v>
-      </c>
       <c r="C330" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E330" s="25"/>
       <c r="F330" s="25"/>
@@ -10948,16 +10948,16 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B331" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>1087</v>
-      </c>
       <c r="C331" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E331" s="25"/>
       <c r="F331" s="25"/>
@@ -10965,16 +10965,16 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="C332" s="25" t="s">
         <v>1089</v>
       </c>
-      <c r="C332" s="25" t="s">
-        <v>1090</v>
-      </c>
       <c r="D332" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E332" s="25">
         <v>4511</v>
@@ -10986,29 +10986,29 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B333" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="B333" s="6" t="s">
-        <v>1092</v>
-      </c>
       <c r="C333" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D333" s="25" t="s">
         <v>1015</v>
-      </c>
-      <c r="D333" s="25" t="s">
-        <v>1016</v>
       </c>
       <c r="F333" s="25"/>
       <c r="G333" s="9"/>
     </row>
     <row r="334" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B334" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="B334" s="6" t="s">
-        <v>1094</v>
-      </c>
       <c r="C334" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D334" s="25" t="s">
         <v>21</v>
@@ -11019,16 +11019,16 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B335" s="12" t="s">
         <v>1095</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="C335" s="22" t="s">
         <v>1096</v>
       </c>
-      <c r="C335" s="22" t="s">
+      <c r="D335" s="22" t="s">
         <v>1097</v>
-      </c>
-      <c r="D335" s="22" t="s">
-        <v>1098</v>
       </c>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
@@ -11038,16 +11038,16 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="B336" s="6" t="s">
-        <v>1100</v>
-      </c>
       <c r="C336" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E336" s="25"/>
       <c r="F336" s="25"/>
@@ -11055,54 +11055,54 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="C337" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="C337" s="25" t="s">
+      <c r="D337" s="25" t="s">
         <v>1103</v>
       </c>
-      <c r="D337" s="25" t="s">
+      <c r="E337" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="E337" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="F337" s="25"/>
       <c r="G337" s="9"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="C338" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D338" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E338" s="27" t="s">
         <v>1107</v>
-      </c>
-      <c r="C338" s="25" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D338" s="25" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E338" s="27" t="s">
-        <v>1108</v>
       </c>
       <c r="F338" s="25"/>
       <c r="G338" s="9"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="B339" s="6" t="s">
-        <v>1110</v>
-      </c>
       <c r="C339" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D339" s="25" t="s">
         <v>1015</v>
-      </c>
-      <c r="D339" s="25" t="s">
-        <v>1016</v>
       </c>
       <c r="E339" s="25"/>
       <c r="F339" s="25"/>
@@ -11110,16 +11110,16 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B340" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="B340" s="6" t="s">
-        <v>1112</v>
-      </c>
       <c r="C340" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D340" s="25" t="s">
         <v>1015</v>
-      </c>
-      <c r="D340" s="25" t="s">
-        <v>1016</v>
       </c>
       <c r="E340" s="25"/>
       <c r="F340" s="25"/>
@@ -11127,19 +11127,19 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B341" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="C341" s="25" t="s">
         <v>1114</v>
-      </c>
-      <c r="C341" s="25" t="s">
-        <v>1115</v>
       </c>
       <c r="D341" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F341" s="25">
         <v>1005</v>
@@ -11148,76 +11148,76 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B342" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="C342" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D342" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E342" s="27" t="s">
         <v>1118</v>
-      </c>
-      <c r="C342" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D342" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E342" s="27" t="s">
-        <v>1119</v>
       </c>
       <c r="F342" s="25"/>
       <c r="G342" s="27"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="C343" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D343" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E343" s="27" t="s">
         <v>1121</v>
-      </c>
-      <c r="C343" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D343" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E343" s="27" t="s">
-        <v>1122</v>
       </c>
       <c r="F343" s="25"/>
       <c r="G343" s="9"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B344" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="B344" s="6" t="s">
+      <c r="C344" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D344" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="E344" s="27" t="s">
         <v>1124</v>
-      </c>
-      <c r="C344" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="D344" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="E344" s="27" t="s">
-        <v>1125</v>
       </c>
       <c r="F344" s="25"/>
       <c r="G344" s="9"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="C345" s="25" t="s">
         <v>1127</v>
       </c>
-      <c r="C345" s="25" t="s">
+      <c r="D345" s="25" t="s">
         <v>1128</v>
       </c>
-      <c r="D345" s="25" t="s">
+      <c r="E345" s="27" t="s">
         <v>1129</v>
-      </c>
-      <c r="E345" s="27" t="s">
-        <v>1130</v>
       </c>
       <c r="F345" s="25">
         <v>1005</v>
@@ -11226,19 +11226,19 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>1131</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="C346" s="15" t="s">
         <v>1132</v>
       </c>
-      <c r="C346" s="15" t="s">
+      <c r="D346" s="22" t="s">
         <v>1133</v>
       </c>
-      <c r="D346" s="22" t="s">
+      <c r="E346" s="23" t="s">
         <v>1134</v>
-      </c>
-      <c r="E346" s="23" t="s">
-        <v>1135</v>
       </c>
       <c r="F346" s="22">
         <v>1005</v>
@@ -11249,19 +11249,19 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="C347" s="25" t="s">
         <v>1137</v>
-      </c>
-      <c r="C347" s="25" t="s">
-        <v>1138</v>
       </c>
       <c r="D347" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E347" s="27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F347" s="25">
         <v>1005</v>
@@ -11270,16 +11270,16 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B348" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="C348" s="25" t="s">
         <v>1141</v>
       </c>
-      <c r="C348" s="25" t="s">
-        <v>1142</v>
-      </c>
       <c r="D348" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E348" s="27"/>
       <c r="F348" s="25"/>
@@ -11287,19 +11287,19 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B349" s="12" t="s">
         <v>1143</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="C349" s="22" t="s">
         <v>1144</v>
       </c>
-      <c r="C349" s="22" t="s">
+      <c r="D349" s="22" t="s">
         <v>1145</v>
       </c>
-      <c r="D349" s="22" t="s">
+      <c r="E349" s="23" t="s">
         <v>1146</v>
-      </c>
-      <c r="E349" s="23" t="s">
-        <v>1147</v>
       </c>
       <c r="F349" s="22">
         <v>2206</v>
@@ -11310,13 +11310,13 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B350" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>1149</v>
-      </c>
       <c r="C350" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D350" s="25" t="s">
         <v>78</v>
@@ -11327,16 +11327,16 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B351" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="B351" s="6" t="s">
-        <v>1151</v>
-      </c>
       <c r="C351" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D351" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D351" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E351" s="27"/>
       <c r="F351" s="25"/>
@@ -11344,16 +11344,16 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B352" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="B352" s="6" t="s">
-        <v>1153</v>
-      </c>
       <c r="C352" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E352" s="27"/>
       <c r="F352" s="25"/>
@@ -11361,16 +11361,16 @@
     </row>
     <row r="353" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="58" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B353" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>1155</v>
-      </c>
       <c r="C353" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E353" s="27"/>
       <c r="F353" s="25"/>
@@ -11378,16 +11378,16 @@
     </row>
     <row r="354" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="58" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B354" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="B354" s="6" t="s">
+      <c r="C354" s="25" t="s">
         <v>1157</v>
       </c>
-      <c r="C354" s="25" t="s">
-        <v>1158</v>
-      </c>
       <c r="D354" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E354" s="27"/>
       <c r="F354" s="25"/>
@@ -11395,19 +11395,19 @@
     </row>
     <row r="355" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B355" s="12" t="s">
         <v>1159</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="C355" s="22" t="s">
         <v>1160</v>
       </c>
-      <c r="C355" s="22" t="s">
+      <c r="D355" s="22" t="s">
         <v>1161</v>
       </c>
-      <c r="D355" s="22" t="s">
+      <c r="E355" s="23" t="s">
         <v>1162</v>
-      </c>
-      <c r="E355" s="23" t="s">
-        <v>1163</v>
       </c>
       <c r="F355" s="22"/>
       <c r="G355" s="15" t="s">
@@ -11416,16 +11416,16 @@
     </row>
     <row r="356" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="60" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B356" s="61" t="s">
         <v>1164</v>
       </c>
-      <c r="B356" s="61" t="s">
+      <c r="C356" s="62" t="s">
         <v>1165</v>
       </c>
-      <c r="C356" s="62" t="s">
+      <c r="D356" s="62" t="s">
         <v>1166</v>
-      </c>
-      <c r="D356" s="62" t="s">
-        <v>1167</v>
       </c>
       <c r="E356" s="63"/>
       <c r="F356" s="64"/>
@@ -11435,16 +11435,16 @@
     </row>
     <row r="357" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="58" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>1169</v>
-      </c>
       <c r="C357" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D357" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D357" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E357" s="27"/>
       <c r="F357" s="25"/>
@@ -11452,16 +11452,16 @@
     </row>
     <row r="358" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="58" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B358" s="6" t="s">
-        <v>1171</v>
-      </c>
       <c r="C358" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D358" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D358" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E358" s="27"/>
       <c r="F358" s="25"/>
@@ -11469,16 +11469,16 @@
     </row>
     <row r="359" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="58" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B359" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="C359" s="25" t="s">
         <v>1173</v>
       </c>
-      <c r="C359" s="25" t="s">
-        <v>1174</v>
-      </c>
       <c r="D359" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E359" s="27"/>
       <c r="F359" s="25"/>
@@ -11486,13 +11486,13 @@
     </row>
     <row r="360" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="58" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B360" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="C360" s="25" t="s">
         <v>1176</v>
-      </c>
-      <c r="C360" s="25" t="s">
-        <v>1177</v>
       </c>
       <c r="D360" s="25" t="s">
         <v>78</v>
@@ -11503,13 +11503,13 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B361" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="C361" s="25" t="s">
         <v>1179</v>
-      </c>
-      <c r="C361" s="25" t="s">
-        <v>1180</v>
       </c>
       <c r="D361" s="25" t="s">
         <v>78</v>
@@ -11520,13 +11520,13 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B362" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="C362" s="25" t="s">
         <v>1182</v>
-      </c>
-      <c r="C362" s="25" t="s">
-        <v>1183</v>
       </c>
       <c r="D362" s="25" t="s">
         <v>78</v>
@@ -11537,13 +11537,13 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B363" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="B363" s="6" t="s">
+      <c r="C363" s="25" t="s">
         <v>1185</v>
-      </c>
-      <c r="C363" s="25" t="s">
-        <v>1186</v>
       </c>
       <c r="D363" s="25" t="s">
         <v>78</v>
@@ -11554,16 +11554,16 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B364" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="C364" s="25" t="s">
         <v>1188</v>
       </c>
-      <c r="C364" s="25" t="s">
-        <v>1189</v>
-      </c>
       <c r="D364" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E364" s="27"/>
       <c r="F364" s="25"/>
@@ -11571,16 +11571,16 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B365" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>1191</v>
-      </c>
       <c r="C365" s="25" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E365" s="27"/>
       <c r="F365" s="25"/>
@@ -11588,13 +11588,13 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B366" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="B366" s="6" t="s">
+      <c r="C366" s="25" t="s">
         <v>1193</v>
-      </c>
-      <c r="C366" s="25" t="s">
-        <v>1194</v>
       </c>
       <c r="D366" s="25" t="s">
         <v>78</v>
@@ -11605,16 +11605,16 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B367" s="12" t="s">
         <v>1195</v>
       </c>
-      <c r="B367" s="12" t="s">
+      <c r="C367" s="22" t="s">
         <v>1196</v>
       </c>
-      <c r="C367" s="22" t="s">
+      <c r="D367" s="22" t="s">
         <v>1197</v>
-      </c>
-      <c r="D367" s="22" t="s">
-        <v>1198</v>
       </c>
       <c r="E367" s="23"/>
       <c r="F367" s="22">
@@ -11626,19 +11626,19 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B368" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="B368" s="12" t="s">
+      <c r="C368" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D368" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E368" s="23" t="s">
         <v>1200</v>
-      </c>
-      <c r="C368" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D368" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E368" s="23" t="s">
-        <v>1201</v>
       </c>
       <c r="F368" s="22">
         <v>1005</v>
@@ -11649,19 +11649,19 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="16" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B369" s="17" t="s">
         <v>1202</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="C369" s="18" t="s">
         <v>1203</v>
       </c>
-      <c r="C369" s="18" t="s">
+      <c r="D369" s="18" t="s">
         <v>1204</v>
       </c>
-      <c r="D369" s="18" t="s">
+      <c r="E369" s="32" t="s">
         <v>1205</v>
-      </c>
-      <c r="E369" s="32" t="s">
-        <v>1206</v>
       </c>
       <c r="F369" s="18">
         <v>1005</v>
@@ -11670,16 +11670,16 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B370" s="6" t="s">
         <v>1207</v>
       </c>
-      <c r="B370" s="6" t="s">
+      <c r="C370" s="25" t="s">
         <v>1208</v>
       </c>
-      <c r="C370" s="25" t="s">
-        <v>1209</v>
-      </c>
       <c r="D370" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E370" s="25"/>
       <c r="F370" s="25"/>
@@ -11687,54 +11687,54 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B371" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="B371" s="6" t="s">
+      <c r="C371" s="25" t="s">
         <v>1211</v>
       </c>
-      <c r="C371" s="25" t="s">
+      <c r="D371" s="25" t="s">
         <v>1212</v>
       </c>
-      <c r="D371" s="25" t="s">
+      <c r="E371" s="27" t="s">
         <v>1213</v>
-      </c>
-      <c r="E371" s="27" t="s">
-        <v>1214</v>
       </c>
       <c r="F371" s="70"/>
       <c r="G371" s="6"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B372" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="B372" s="6" t="s">
+      <c r="C372" s="25" t="s">
         <v>1216</v>
       </c>
-      <c r="C372" s="25" t="s">
+      <c r="D372" s="25" t="s">
         <v>1217</v>
-      </c>
-      <c r="D372" s="25" t="s">
-        <v>1218</v>
       </c>
       <c r="E372" s="25"/>
       <c r="F372" s="25"/>
       <c r="G372" s="66" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B373" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>1221</v>
-      </c>
       <c r="C373" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D373" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D373" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E373" s="25"/>
       <c r="F373" s="25"/>
@@ -11742,16 +11742,16 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B374" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>1223</v>
-      </c>
       <c r="C374" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D374" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D374" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E374" s="25"/>
       <c r="F374" s="25"/>
@@ -11759,13 +11759,13 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B375" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="B375" s="6" t="s">
+      <c r="C375" s="25" t="s">
         <v>1225</v>
-      </c>
-      <c r="C375" s="25" t="s">
-        <v>1226</v>
       </c>
       <c r="D375" s="25" t="s">
         <v>78</v>
@@ -11776,16 +11776,16 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B376" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="C376" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="C376" s="25" t="s">
+      <c r="D376" s="25" t="s">
         <v>1229</v>
-      </c>
-      <c r="D376" s="25" t="s">
-        <v>1230</v>
       </c>
       <c r="E376" s="25">
         <v>8525</v>
@@ -11797,16 +11797,16 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B377" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="C377" s="25" t="s">
         <v>1232</v>
       </c>
-      <c r="C377" s="25" t="s">
+      <c r="D377" s="25" t="s">
         <v>1233</v>
-      </c>
-      <c r="D377" s="25" t="s">
-        <v>1234</v>
       </c>
       <c r="E377" s="25">
         <v>3035</v>
@@ -11818,16 +11818,16 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B378" s="71" t="s">
         <v>1235</v>
       </c>
-      <c r="B378" s="71" t="s">
+      <c r="C378" s="25" t="s">
         <v>1236</v>
       </c>
-      <c r="C378" s="25" t="s">
-        <v>1237</v>
-      </c>
       <c r="D378" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E378" s="25">
         <v>2812</v>
@@ -11837,16 +11837,16 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="72" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B379" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="B379" s="6" t="s">
-        <v>1239</v>
-      </c>
       <c r="C379" s="25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E379" s="25"/>
       <c r="F379" s="25"/>
@@ -11854,16 +11854,16 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="72" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B380" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="B380" s="6" t="s">
+      <c r="C380" s="25" t="s">
         <v>1241</v>
       </c>
-      <c r="C380" s="25" t="s">
-        <v>1242</v>
-      </c>
       <c r="D380" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E380" s="25"/>
       <c r="F380" s="25"/>
@@ -11871,13 +11871,13 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="72" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B381" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="B381" s="6" t="s">
+      <c r="C381" s="25" t="s">
         <v>1244</v>
-      </c>
-      <c r="C381" s="25" t="s">
-        <v>1245</v>
       </c>
       <c r="D381" s="25" t="s">
         <v>21</v>
@@ -11888,13 +11888,13 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B382" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="C382" s="25" t="s">
         <v>1247</v>
-      </c>
-      <c r="C382" s="25" t="s">
-        <v>1248</v>
       </c>
       <c r="D382" s="25" t="s">
         <v>21</v>
@@ -11905,16 +11905,16 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B383" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="B383" s="6" t="s">
+      <c r="C383" s="25" t="s">
         <v>1250</v>
       </c>
-      <c r="C383" s="25" t="s">
-        <v>1251</v>
-      </c>
       <c r="D383" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E383" s="25"/>
       <c r="F383" s="70">
@@ -11924,16 +11924,16 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B384" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="B384" s="6" t="s">
-        <v>1253</v>
-      </c>
       <c r="C384" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D384" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D384" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E384" s="25"/>
       <c r="F384" s="6"/>
@@ -11941,16 +11941,16 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B385" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>1255</v>
-      </c>
       <c r="C385" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D385" s="25" t="s">
         <v>970</v>
-      </c>
-      <c r="D385" s="25" t="s">
-        <v>971</v>
       </c>
       <c r="E385" s="25"/>
       <c r="F385" s="6"/>
@@ -11958,16 +11958,16 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B386" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="B386" s="6" t="s">
+      <c r="C386" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="C386" s="25" t="s">
+      <c r="D386" s="24" t="s">
         <v>1258</v>
-      </c>
-      <c r="D386" s="24" t="s">
-        <v>1259</v>
       </c>
       <c r="E386" s="25">
         <v>3206</v>
@@ -11979,13 +11979,13 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B387" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="B387" s="6" t="s">
+      <c r="C387" s="25" t="s">
         <v>1261</v>
-      </c>
-      <c r="C387" s="25" t="s">
-        <v>1262</v>
       </c>
       <c r="D387" s="25" t="s">
         <v>78</v>
@@ -11996,13 +11996,13 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B388" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="B388" s="6" t="s">
+      <c r="C388" s="25" t="s">
         <v>1264</v>
-      </c>
-      <c r="C388" s="25" t="s">
-        <v>1265</v>
       </c>
       <c r="D388" s="25" t="s">
         <v>58</v>
@@ -12013,13 +12013,13 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B389" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="B389" s="6" t="s">
+      <c r="C389" s="74" t="s">
         <v>1267</v>
-      </c>
-      <c r="C389" s="74" t="s">
-        <v>1268</v>
       </c>
       <c r="D389" s="25" t="s">
         <v>78</v>
@@ -12030,13 +12030,13 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B390" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="B390" s="6" t="s">
+      <c r="C390" s="25" t="s">
         <v>1270</v>
-      </c>
-      <c r="C390" s="25" t="s">
-        <v>1271</v>
       </c>
       <c r="D390" s="25" t="s">
         <v>78</v>
@@ -12047,35 +12047,35 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B391" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="B391" s="6" t="s">
+      <c r="C391" s="25" t="s">
         <v>1273</v>
       </c>
-      <c r="C391" s="25" t="s">
+      <c r="D391" s="25" t="s">
         <v>1274</v>
-      </c>
-      <c r="D391" s="25" t="s">
-        <v>1275</v>
       </c>
       <c r="E391" s="27"/>
       <c r="F391" s="25"/>
       <c r="G391" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B392" s="6" t="s">
         <v>1277</v>
       </c>
-      <c r="B392" s="6" t="s">
+      <c r="C392" s="25" t="s">
         <v>1278</v>
       </c>
-      <c r="C392" s="25" t="s">
+      <c r="D392" s="25" t="s">
         <v>1279</v>
-      </c>
-      <c r="D392" s="25" t="s">
-        <v>1280</v>
       </c>
       <c r="E392" s="27"/>
       <c r="F392" s="25"/>
@@ -12085,7 +12085,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="9"/>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="9"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="9"/>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="9"/>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="9"/>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="9"/>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="9"/>
@@ -12162,7 +12162,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B400" s="6"/>
       <c r="C400" s="9"/>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B401" s="6"/>
       <c r="C401" s="9"/>
@@ -12185,4 +12185,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
+    <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="11" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bd66242-e0b1-4d5e-a424-ed2be647a714" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5de6d577-5e06-4df3-9e53-a11405c55b7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7c6541c9-858d-46cc-aee4-1fa681dc1bd6">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E957A44F-8514-4690-AD07-2527ECE5A9F1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66E93C4F-62E8-4AEF-9662-0DBCF81128EB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A3D4D1-2363-4918-AEEA-DFFD8F9F56F9}"/>
 </file>